--- a/data/trans_orig/P04C05_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P04C05_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>103744</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>77324</v>
+        <v>75326</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>135438</v>
+        <v>133421</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2544033758265103</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1896152049728172</v>
+        <v>0.1847174584153603</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3321253772442175</v>
+        <v>0.3271788309933911</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>51</v>
@@ -762,19 +762,19 @@
         <v>100423</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>77758</v>
+        <v>77736</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>123528</v>
+        <v>126828</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2770188134288629</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2144972501493256</v>
+        <v>0.2144374222069344</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3407551576947017</v>
+        <v>0.3498582332132862</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>91</v>
@@ -783,19 +783,19 @@
         <v>204167</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>168422</v>
+        <v>167513</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>245284</v>
+        <v>241181</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2650463893724621</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2186429907039531</v>
+        <v>0.2174631490532199</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.318424721274188</v>
+        <v>0.3130984182133252</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11100</v>
+        <v>11078</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.008724432492016066</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02721924997311976</v>
+        <v>0.0271650279126116</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -833,19 +833,19 @@
         <v>5403</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1393</v>
+        <v>1334</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16629</v>
+        <v>15139</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01490431399393375</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.00384350693619469</v>
+        <v>0.003679558807851525</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.045872885308891</v>
+        <v>0.04176155181595818</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -854,19 +854,19 @@
         <v>8961</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3352</v>
+        <v>3043</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>20912</v>
+        <v>20394</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01163273626635667</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.004351840847023953</v>
+        <v>0.003950123082757924</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02714743395393798</v>
+        <v>0.02647578726421989</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>300491</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>268784</v>
+        <v>269475</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>327601</v>
+        <v>329093</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7368721916814737</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.659119645637942</v>
+        <v>0.6608129638641197</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.803352254564986</v>
+        <v>0.8070093646491012</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>153</v>
@@ -904,19 +904,19 @@
         <v>256686</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>233119</v>
+        <v>230744</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>279768</v>
+        <v>278887</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.7080768725772033</v>
+        <v>0.7080768725772032</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.643066596615653</v>
+        <v>0.6365137351722274</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7717472715658317</v>
+        <v>0.7693176746348794</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>283</v>
@@ -925,19 +925,19 @@
         <v>557178</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>516612</v>
+        <v>517868</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>594226</v>
+        <v>596352</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.7233208743611813</v>
+        <v>0.7233208743611812</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6706594230836993</v>
+        <v>0.672289703402345</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7714169554949782</v>
+        <v>0.7741768933663997</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>98689</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>75972</v>
+        <v>78394</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>125283</v>
+        <v>125774</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2069434164719459</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1593070539284298</v>
+        <v>0.164386731014156</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2627090477187484</v>
+        <v>0.2637369305826369</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>109</v>
@@ -1050,19 +1050,19 @@
         <v>128146</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>105633</v>
+        <v>108122</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>149306</v>
+        <v>151988</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.2559535514297</v>
+        <v>0.2559535514297001</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2109875870142785</v>
+        <v>0.2159571570652438</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.298216988577037</v>
+        <v>0.3035744191285367</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>165</v>
@@ -1071,19 +1071,19 @@
         <v>226835</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>196631</v>
+        <v>197564</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>260160</v>
+        <v>261012</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.232044386220071</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2011466170494497</v>
+        <v>0.2021010975747845</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2661342831838942</v>
+        <v>0.2670060770485436</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>9963</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4010</v>
+        <v>4316</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>20690</v>
+        <v>20869</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02089248284992914</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.008408426365919578</v>
+        <v>0.009050791477557487</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04338471481592477</v>
+        <v>0.04376156688001471</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -1121,19 +1121,19 @@
         <v>2540</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6911</v>
+        <v>7018</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.005073274119533979</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.001469972516350555</v>
+        <v>0.001457284912483183</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01380301621792811</v>
+        <v>0.01401818359822369</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>10</v>
@@ -1142,19 +1142,19 @@
         <v>12503</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>5717</v>
+        <v>5910</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>22956</v>
+        <v>23932</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.01279053658670829</v>
+        <v>0.0127905365867083</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.005848610797329628</v>
+        <v>0.00604536138617886</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02348338956759748</v>
+        <v>0.02448192018803187</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>368237</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>341809</v>
+        <v>340631</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>391291</v>
+        <v>389250</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7721641006781248</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7167462298144553</v>
+        <v>0.7142750143925823</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8205050540691968</v>
+        <v>0.8162255902887284</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>348</v>
@@ -1192,19 +1192,19 @@
         <v>369976</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>349124</v>
+        <v>345751</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>393146</v>
+        <v>390577</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7389731744507659</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6973243600094631</v>
+        <v>0.690588422244092</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7852529985085264</v>
+        <v>0.7801207103527917</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>587</v>
@@ -1213,19 +1213,19 @@
         <v>738213</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>705383</v>
+        <v>704006</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>768309</v>
+        <v>767813</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.7551650771932207</v>
+        <v>0.7551650771932208</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7215808533379324</v>
+        <v>0.7201727444231379</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7859517078487024</v>
+        <v>0.7854443961169927</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>161362</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>137486</v>
+        <v>140124</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>185947</v>
+        <v>187437</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2608615018233578</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2222628895104714</v>
+        <v>0.2265274733605907</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3006071212612698</v>
+        <v>0.3030150053626983</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>216</v>
@@ -1338,19 +1338,19 @@
         <v>164868</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>147224</v>
+        <v>145531</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>184767</v>
+        <v>182832</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2657650476518041</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2373241183607062</v>
+        <v>0.2345950221379382</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2978424400704148</v>
+        <v>0.2947233310199373</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>354</v>
@@ -1359,19 +1359,19 @@
         <v>326230</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>297988</v>
+        <v>297602</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>355800</v>
+        <v>358383</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2633167950329854</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2405214565078828</v>
+        <v>0.2402098277331672</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2871846843796924</v>
+        <v>0.2892693685463549</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>5637</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1868</v>
+        <v>1863</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12919</v>
+        <v>12870</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009112152692114885</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0030201931265651</v>
+        <v>0.003011489496267212</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02088570492238096</v>
+        <v>0.02080557889915922</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -1409,19 +1409,19 @@
         <v>6148</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2960</v>
+        <v>3050</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11433</v>
+        <v>11771</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.009910305900706892</v>
+        <v>0.00991030590070689</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004771989543349299</v>
+        <v>0.004916551809500347</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0184294729565424</v>
+        <v>0.0189739437474516</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -1430,19 +1430,19 @@
         <v>11784</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7013</v>
+        <v>6804</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>20114</v>
+        <v>19864</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.009511802297086439</v>
+        <v>0.009511802297086437</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005660551188313758</v>
+        <v>0.005492103433023757</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01623480023402225</v>
+        <v>0.01603292459335935</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>451575</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>427359</v>
+        <v>425860</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>476552</v>
+        <v>473756</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7300263454845272</v>
+        <v>0.7300263454845273</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6908783774858955</v>
+        <v>0.6884551177994085</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7704046650548354</v>
+        <v>0.7658857181133092</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>620</v>
@@ -1480,19 +1480,19 @@
         <v>449336</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>429577</v>
+        <v>431398</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>467875</v>
+        <v>468821</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7243246464474891</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.692472306413023</v>
+        <v>0.6954085660542754</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7542093704714453</v>
+        <v>0.7557338160459675</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1021</v>
@@ -1501,19 +1501,19 @@
         <v>900911</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>870384</v>
+        <v>868001</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>928376</v>
+        <v>930339</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7271714026699281</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.702531293403</v>
+        <v>0.7006081310167068</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7493402758766842</v>
+        <v>0.7509242975562923</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>177476</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>152368</v>
+        <v>154362</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>203163</v>
+        <v>203080</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2533143224792018</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2174770597924094</v>
+        <v>0.2203233925903055</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2899768431717221</v>
+        <v>0.2898587483779941</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>255</v>
@@ -1626,19 +1626,19 @@
         <v>167070</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>150515</v>
+        <v>149067</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>186372</v>
+        <v>185301</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2269397285436805</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2044521069335221</v>
+        <v>0.2024855121980099</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.253157641828787</v>
+        <v>0.2517033823165728</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>410</v>
@@ -1647,19 +1647,19 @@
         <v>344547</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>315975</v>
+        <v>314181</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>374593</v>
+        <v>377288</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2398005497293348</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2199152016991206</v>
+        <v>0.2186660882370696</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2607126452407673</v>
+        <v>0.2625883349489099</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>16578</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9039</v>
+        <v>9478</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26964</v>
+        <v>26856</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02366195113877174</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01290157379867538</v>
+        <v>0.01352857180431469</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03848630249277878</v>
+        <v>0.03833129886158406</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -1697,19 +1697,19 @@
         <v>7664</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4193</v>
+        <v>3994</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12532</v>
+        <v>13275</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01041015029304695</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.005694895064605621</v>
+        <v>0.005425438526005817</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0170225435410906</v>
+        <v>0.01803255036858252</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>27</v>
@@ -1718,19 +1718,19 @@
         <v>24242</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>16143</v>
+        <v>15839</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>36671</v>
+        <v>35007</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0168720143688095</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01123534083332479</v>
+        <v>0.01102365741370194</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02552280635177548</v>
+        <v>0.02436422630415832</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>506563</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>481818</v>
+        <v>479685</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>531528</v>
+        <v>530047</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.7230237263820265</v>
+        <v>0.7230237263820264</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6877057025372582</v>
+        <v>0.684661450791677</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7586565480048149</v>
+        <v>0.756542506034941</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>873</v>
@@ -1768,19 +1768,19 @@
         <v>561454</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>541965</v>
+        <v>541697</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>577565</v>
+        <v>578738</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7626501211632726</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7361770549351572</v>
+        <v>0.7358137585783763</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7845350585911479</v>
+        <v>0.7861285343725211</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1368</v>
@@ -1789,19 +1789,19 @@
         <v>1068017</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1035659</v>
+        <v>1034401</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1098893</v>
+        <v>1098404</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.7433274359018556</v>
+        <v>0.7433274359018557</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7208066232482625</v>
+        <v>0.7199317029164313</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7648168162416391</v>
+        <v>0.7644770075595074</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>163876</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>143416</v>
+        <v>142794</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>189410</v>
+        <v>185636</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2693544643961614</v>
+        <v>0.2693544643961613</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2357244414051403</v>
+        <v>0.2347028554858738</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3113221050600939</v>
+        <v>0.3051203935681027</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>260</v>
@@ -1914,19 +1914,19 @@
         <v>159714</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>144087</v>
+        <v>142765</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>177742</v>
+        <v>177543</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.2632194286615561</v>
+        <v>0.2632194286615562</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2374637094095611</v>
+        <v>0.2352851337778505</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2929299288964757</v>
+        <v>0.2926027526246038</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>425</v>
@@ -1935,19 +1935,19 @@
         <v>323591</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>298788</v>
+        <v>296155</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>353151</v>
+        <v>351289</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2662910643748735</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2458806328129713</v>
+        <v>0.2437132588370123</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2906168699497276</v>
+        <v>0.2890849923260608</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>8417</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3948</v>
+        <v>3926</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>16256</v>
+        <v>15540</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.01383453120518823</v>
+        <v>0.01383453120518822</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.006489426254461254</v>
+        <v>0.006452282414488186</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02671899502030763</v>
+        <v>0.02554249131921123</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>13</v>
@@ -1985,19 +1985,19 @@
         <v>7499</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4244</v>
+        <v>4200</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>12675</v>
+        <v>12656</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01235848714021368</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.006993915862298988</v>
+        <v>0.006921815375673084</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02088946877355765</v>
+        <v>0.02085838431984157</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>21</v>
@@ -2006,19 +2006,19 @@
         <v>15916</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>10239</v>
+        <v>10426</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>24721</v>
+        <v>24420</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01309749989589043</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.00842619043554463</v>
+        <v>0.008580134927416693</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02034385742686632</v>
+        <v>0.02009598706804303</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>436111</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>411657</v>
+        <v>414049</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>457496</v>
+        <v>457310</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7168110043986503</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.676618348106287</v>
+        <v>0.6805494176475552</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7519607044430013</v>
+        <v>0.7516553281800749</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>726</v>
@@ -2056,19 +2056,19 @@
         <v>439560</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>421474</v>
+        <v>421231</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>455763</v>
+        <v>456650</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7244220841982302</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6946159280989277</v>
+        <v>0.6942146060527733</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.751125958740858</v>
+        <v>0.7525882453638507</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1215</v>
@@ -2077,19 +2077,19 @@
         <v>875670</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>848597</v>
+        <v>848412</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>901078</v>
+        <v>903102</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.7206114357292361</v>
+        <v>0.720611435729236</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6983318120489601</v>
+        <v>0.6981800075776344</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7415199960423072</v>
+        <v>0.7431858659948415</v>
       </c>
     </row>
     <row r="23">
@@ -2181,19 +2181,19 @@
         <v>109517</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>95042</v>
+        <v>94182</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>126404</v>
+        <v>125542</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2690298990715977</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2334728058055954</v>
+        <v>0.2313605339503698</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3105130473497242</v>
+        <v>0.3083954495966765</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>249</v>
@@ -2202,19 +2202,19 @@
         <v>132906</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>120130</v>
+        <v>119571</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>147548</v>
+        <v>145306</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.3026325416011996</v>
+        <v>0.3026325416011995</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2735415786034558</v>
+        <v>0.2722674605947111</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3359735362413717</v>
+        <v>0.3308676064187624</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>390</v>
@@ -2223,19 +2223,19 @@
         <v>242423</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>223530</v>
+        <v>221580</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>263635</v>
+        <v>263600</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2864682631672829</v>
+        <v>0.286468263167283</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2641425639371104</v>
+        <v>0.2618389738706904</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3115343585502209</v>
+        <v>0.3114936790150794</v>
       </c>
     </row>
     <row r="25">
@@ -2252,19 +2252,19 @@
         <v>5022</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2153</v>
+        <v>2000</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9915</v>
+        <v>9841</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01233624463227994</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.005288916970778415</v>
+        <v>0.004912824246255184</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02435662028829029</v>
+        <v>0.02417456707284223</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>11</v>
@@ -2273,19 +2273,19 @@
         <v>5485</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3048</v>
+        <v>2928</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>9815</v>
+        <v>9551</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.01248939520544896</v>
+        <v>0.01248939520544895</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.006940472614475045</v>
+        <v>0.006666086521796991</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02234809566466473</v>
+        <v>0.02174850745918887</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>18</v>
@@ -2294,19 +2294,19 @@
         <v>10507</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6681</v>
+        <v>6696</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>16958</v>
+        <v>16159</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01241572336535968</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.007895455009153068</v>
+        <v>0.007912196899074306</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02003864827138241</v>
+        <v>0.01909467589591542</v>
       </c>
     </row>
     <row r="26">
@@ -2323,19 +2323,19 @@
         <v>292541</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>275550</v>
+        <v>276790</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>307237</v>
+        <v>308319</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7186338562961223</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6768941945770206</v>
+        <v>0.6799396722442145</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7547341115724263</v>
+        <v>0.7573907071717972</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>567</v>
@@ -2344,19 +2344,19 @@
         <v>300775</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>286169</v>
+        <v>287628</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>314284</v>
+        <v>314563</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.6848780631933515</v>
+        <v>0.6848780631933514</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6516180774329077</v>
+        <v>0.6549414691902068</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7156387745329157</v>
+        <v>0.7162731070434006</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>989</v>
@@ -2365,19 +2365,19 @@
         <v>593317</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>572128</v>
+        <v>571945</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>612639</v>
+        <v>613972</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7011160134673573</v>
+        <v>0.7011160134673574</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.676078151712276</v>
+        <v>0.6758610019854184</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7239484952096407</v>
+        <v>0.725524350359405</v>
       </c>
     </row>
     <row r="27">
@@ -2469,19 +2469,19 @@
         <v>90501</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>77919</v>
+        <v>76622</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>104421</v>
+        <v>103951</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2917523772175483</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2511911877437109</v>
+        <v>0.2470108836957361</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.336626237636089</v>
+        <v>0.3351129177531641</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>314</v>
@@ -2490,19 +2490,19 @@
         <v>163218</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>147801</v>
+        <v>148932</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>179637</v>
+        <v>180232</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.351300785625852</v>
+        <v>0.3513007856258519</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3181199534140596</v>
+        <v>0.3205524230923312</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3866415754859502</v>
+        <v>0.387921834207875</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>436</v>
@@ -2511,19 +2511,19 @@
         <v>253718</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>233686</v>
+        <v>233097</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>273200</v>
+        <v>273844</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.3274602539733444</v>
+        <v>0.3274602539733443</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3016050009915923</v>
+        <v>0.3008447402658295</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3526043255326041</v>
+        <v>0.353434851424646</v>
       </c>
     </row>
     <row r="29">
@@ -2540,19 +2540,19 @@
         <v>4359</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1584</v>
+        <v>1708</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>9421</v>
+        <v>9689</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01405097141978899</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.005106764736751348</v>
+        <v>0.005506446779860625</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03036987089533531</v>
+        <v>0.03123328704517039</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>13</v>
@@ -2561,19 +2561,19 @@
         <v>6150</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3258</v>
+        <v>3305</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>10370</v>
+        <v>9978</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.01323751993450051</v>
+        <v>0.0132375199345005</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.007012676909089355</v>
+        <v>0.007112864018988431</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02231932663041099</v>
+        <v>0.02147530318440899</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>19</v>
@@ -2582,19 +2582,19 @@
         <v>10509</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6450</v>
+        <v>6589</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>16417</v>
+        <v>16552</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01356318969463628</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.008324238610252966</v>
+        <v>0.008503816440933407</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0211889646801096</v>
+        <v>0.02136289939430911</v>
       </c>
     </row>
     <row r="30">
@@ -2611,19 +2611,19 @@
         <v>215338</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>202416</v>
+        <v>201611</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>228024</v>
+        <v>229625</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.6941966513626626</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.6525382940260607</v>
+        <v>0.649941499718495</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.7350914482003326</v>
+        <v>0.7402517227631549</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>554</v>
@@ -2632,19 +2632,19 @@
         <v>295241</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>278936</v>
+        <v>279589</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>310709</v>
+        <v>309796</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.6354616944396475</v>
+        <v>0.6354616944396474</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.6003672588835286</v>
+        <v>0.6017732574199742</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6687542340561878</v>
+        <v>0.6667885251973794</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>884</v>
@@ -2653,19 +2653,19 @@
         <v>510580</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>491283</v>
+        <v>489974</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>531360</v>
+        <v>531822</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.6589765563320193</v>
+        <v>0.6589765563320192</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.6340708222387563</v>
+        <v>0.6323819253031925</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6857971232680917</v>
+        <v>0.6863935003379761</v>
       </c>
     </row>
     <row r="31">
@@ -2757,19 +2757,19 @@
         <v>905166</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>846735</v>
+        <v>839147</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>966242</v>
+        <v>966780</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2564531199090962</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2398984794885098</v>
+        <v>0.2377487064819818</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2737573549633475</v>
+        <v>0.2739099440644952</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1454</v>
@@ -2778,19 +2778,19 @@
         <v>1016345</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>970217</v>
+        <v>965250</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1068406</v>
+        <v>1066571</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2724593930985077</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2600934558008679</v>
+        <v>0.2587620077105765</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2864157824830123</v>
+        <v>0.2859238884810985</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2271</v>
@@ -2799,19 +2799,19 @@
         <v>1921511</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1848551</v>
+        <v>1838452</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2001598</v>
+        <v>1995842</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2646775123409436</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2546277337675658</v>
+        <v>0.2532365919963544</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2757091832229056</v>
+        <v>0.2749162742140404</v>
       </c>
     </row>
     <row r="33">
@@ -2828,19 +2828,19 @@
         <v>53533</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>40724</v>
+        <v>39563</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>72171</v>
+        <v>71159</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.01516709118833543</v>
+        <v>0.01516709118833542</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.0115380962112389</v>
+        <v>0.01120912930616355</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02044759412252135</v>
+        <v>0.02016101233433917</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>64</v>
@@ -2849,19 +2849,19 @@
         <v>40889</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>31368</v>
+        <v>30997</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>52265</v>
+        <v>52202</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.01096134281555813</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.008409158818806521</v>
+        <v>0.008309530470329151</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.01401101543025952</v>
+        <v>0.01399424517532163</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>114</v>
@@ -2870,19 +2870,19 @@
         <v>94422</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>78376</v>
+        <v>77732</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>116458</v>
+        <v>116986</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01300608064715549</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.01079586878321201</v>
+        <v>0.0107071575006364</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.01604142820530841</v>
+        <v>0.01611411470154344</v>
       </c>
     </row>
     <row r="34">
@@ -2899,19 +2899,19 @@
         <v>2570857</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2507720</v>
+        <v>2508168</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>2630312</v>
+        <v>2637850</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.7283797889025684</v>
+        <v>0.7283797889025682</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.7104916923127581</v>
+        <v>0.7106185207678144</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.7452245201934878</v>
+        <v>0.7473603119597839</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>3841</v>
@@ -2920,19 +2920,19 @@
         <v>2673028</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2620434</v>
+        <v>2620370</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>2721175</v>
+        <v>2726115</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.7165792640859341</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.7024799533115648</v>
+        <v>0.7024628376879107</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7294862315751959</v>
+        <v>0.7308105077403686</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>6347</v>
@@ -2941,19 +2941,19 @@
         <v>5243886</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>5164534</v>
+        <v>5168251</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5325119</v>
+        <v>5327250</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.7223164070119009</v>
+        <v>0.722316407011901</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.711386207343697</v>
+        <v>0.7118981842607053</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.7335059202066905</v>
+        <v>0.7337993519014692</v>
       </c>
     </row>
     <row r="35">
